--- a/excel/finished/焦化/CK67-化产-鼓风冷凝报表（二）（日）.xlsx
+++ b/excel/finished/焦化/CK67-化产-鼓风冷凝报表（二）（日）.xlsx
@@ -2951,6 +2951,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="70">
+      <pane state="frozen" topLeftCell="C12" xSplit="2" ySplit="11"/>
       <selection activeCell="A3" activeCellId="0" sqref="A3:A6"/>
     </sheetView>
   </sheetViews>
